--- a/Conversion_from_v4/domain.xlsx
+++ b/Conversion_from_v4/domain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="450" windowWidth="28140" windowHeight="12270"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="21720" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Domain</t>
   </si>
@@ -30,39 +30,21 @@
     <t>Ethnicity</t>
   </si>
   <si>
-    <t>Obs period type</t>
-  </si>
-  <si>
-    <t>Observation period type</t>
-  </si>
-  <si>
-    <t>Death type</t>
-  </si>
-  <si>
     <t>Metadata</t>
   </si>
   <si>
     <t>Visit</t>
   </si>
   <si>
-    <t>Visit type</t>
-  </si>
-  <si>
     <t>Procedure</t>
   </si>
   <si>
-    <t>Procedure type</t>
-  </si>
-  <si>
     <t>Modifier</t>
   </si>
   <si>
     <t>Drug</t>
   </si>
   <si>
-    <t>Drug type</t>
-  </si>
-  <si>
     <t>Route</t>
   </si>
   <si>
@@ -72,75 +54,27 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Device type</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Condition type</t>
-  </si>
-  <si>
-    <t>Meas</t>
-  </si>
-  <si>
     <t>Measurement</t>
   </si>
   <si>
-    <t>Meas type</t>
-  </si>
-  <si>
-    <t>Measurement type</t>
-  </si>
-  <si>
-    <t>Meas value operator</t>
-  </si>
-  <si>
-    <t>Measurement value operator</t>
-  </si>
-  <si>
-    <t>Meas value</t>
-  </si>
-  <si>
-    <t>Measurement value</t>
-  </si>
-  <si>
     <t>Note Type</t>
   </si>
   <si>
     <t>Observation</t>
   </si>
   <si>
-    <t>Observation type</t>
-  </si>
-  <si>
     <t>Relationship</t>
   </si>
   <si>
-    <t>Place of service</t>
-  </si>
-  <si>
-    <t>Provider specialty</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
-    <t>Revenue code</t>
-  </si>
-  <si>
     <t>Specimen</t>
   </si>
   <si>
-    <t>Specimen type</t>
-  </si>
-  <si>
-    <t>Specimen anatomic site</t>
-  </si>
-  <si>
-    <t>Specimen disease status</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
@@ -153,19 +87,136 @@
     <t>domain_concept_id</t>
   </si>
   <si>
-    <t>Spec</t>
-  </si>
-  <si>
-    <t>Spec type</t>
-  </si>
-  <si>
-    <t>Spec anatomic site</t>
-  </si>
-  <si>
-    <t>Spec disease status</t>
-  </si>
-  <si>
-    <t>Route of administration</t>
+    <t>Measurement/Observation</t>
+  </si>
+  <si>
+    <t>Device/Observation</t>
+  </si>
+  <si>
+    <t>Measurement/Obs</t>
+  </si>
+  <si>
+    <t>Device/Obs</t>
+  </si>
+  <si>
+    <t>Device/Procedure</t>
+  </si>
+  <si>
+    <t>Observation/Procedure</t>
+  </si>
+  <si>
+    <t>Measurement/Procedure</t>
+  </si>
+  <si>
+    <t>Condition/Measurement</t>
+  </si>
+  <si>
+    <t>Condition/Observation</t>
+  </si>
+  <si>
+    <t>Condition/Procedure</t>
+  </si>
+  <si>
+    <t>Device/Drug</t>
+  </si>
+  <si>
+    <t>Drug/Measurement</t>
+  </si>
+  <si>
+    <t>Drug/Observation</t>
+  </si>
+  <si>
+    <t>Condition/Drug</t>
+  </si>
+  <si>
+    <t>Drug/Procedure</t>
+  </si>
+  <si>
+    <t>Obs/Procedure</t>
+  </si>
+  <si>
+    <t>Condition/Obs</t>
+  </si>
+  <si>
+    <t>Drug/Obs</t>
+  </si>
+  <si>
+    <t>Condition/Meas</t>
+  </si>
+  <si>
+    <t>Death Type</t>
+  </si>
+  <si>
+    <t>Visit Type</t>
+  </si>
+  <si>
+    <t>Procedure Type</t>
+  </si>
+  <si>
+    <t>Drug Type</t>
+  </si>
+  <si>
+    <t>Device Type</t>
+  </si>
+  <si>
+    <t>Condition Type</t>
+  </si>
+  <si>
+    <t>Meas Type</t>
+  </si>
+  <si>
+    <t>Observation Type</t>
+  </si>
+  <si>
+    <t>Spec Type</t>
+  </si>
+  <si>
+    <t>Obs Period Type</t>
+  </si>
+  <si>
+    <t>Observation Period Type</t>
+  </si>
+  <si>
+    <t>Route Of Administration</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Measurement Value Operator</t>
+  </si>
+  <si>
+    <t>Measurement Value</t>
+  </si>
+  <si>
+    <t>Provider Specialty</t>
+  </si>
+  <si>
+    <t>Revenue Code</t>
+  </si>
+  <si>
+    <t>Specimen Type</t>
+  </si>
+  <si>
+    <t>Specimen Anatomic Site</t>
+  </si>
+  <si>
+    <t>Specimen Disease Status</t>
+  </si>
+  <si>
+    <t>Place of Service</t>
+  </si>
+  <si>
+    <t>Meas Value Operator</t>
+  </si>
+  <si>
+    <t>Meas Value</t>
+  </si>
+  <si>
+    <t>Spec Anatomic Site</t>
+  </si>
+  <si>
+    <t>Spec Disease Status</t>
   </si>
 </sst>
 </file>
@@ -195,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -204,9 +255,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -223,21 +272,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -250,9 +284,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -267,12 +299,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,450 +597,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="C26" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A26" s="3" t="s">
+      <c r="C27" s="2">
         <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="C28" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
         <v>31</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="3" t="s">
+      <c r="C45" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="3" t="s">
+      <c r="C46" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A32" s="3" t="s">
+      <c r="C47" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A33" s="3" t="s">
+      <c r="C48" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="3" t="s">
+      <c r="C49" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="C50" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4">
-        <v>40</v>
+      <c r="C51" s="3">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
